--- a/Typocrypha/Assets/gameflow.xlsx
+++ b/Typocrypha/Assets/gameflow.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rockpolotics\UnityTests\TypocryphaTests\Assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rockpolotics\unity_projects\GDA\typocrypha\Typocrypha\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
   <si>
     <t>INTRO</t>
   </si>
@@ -38,21 +38,12 @@
     <t>CUTSCENE</t>
   </si>
   <si>
-    <t>This is the last line; goodbye!</t>
-  </si>
-  <si>
     <t>BATTLE</t>
   </si>
   <si>
     <t>NPC</t>
   </si>
   <si>
-    <t>Iris</t>
-  </si>
-  <si>
-    <t>Dahlia</t>
-  </si>
-  <si>
     <t>DIALOGUE</t>
   </si>
   <si>
@@ -71,10 +62,25 @@
     <t>END_GAME</t>
   </si>
   <si>
-    <t>Hi! I'm Dahlia!</t>
-  </si>
-  <si>
-    <t>Don't forget about Iris!</t>
+    <t>Tanuki</t>
+  </si>
+  <si>
+    <t>Frog</t>
+  </si>
+  <si>
+    <t>It'sa me! Tanuki man!</t>
+  </si>
+  <si>
+    <t>tanuki_mario</t>
+  </si>
+  <si>
+    <t>frog_mario</t>
+  </si>
+  <si>
+    <t>Ribbit Ribbit Ribbit Ribbit. Ribbit Ribbit. Riiiiibbbbiiiiiiiiit.</t>
+  </si>
+  <si>
+    <t>Well, goodbye.</t>
   </si>
 </sst>
 </file>
@@ -426,20 +432,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -447,12 +453,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -460,100 +466,109 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Typocrypha/Assets/gameflow.xlsx
+++ b/Typocrypha/Assets/gameflow.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
   <si>
     <t>INTRO</t>
   </si>
@@ -50,12 +50,6 @@
     <t>ENEMY</t>
   </si>
   <si>
-    <t>Typing Slime</t>
-  </si>
-  <si>
-    <t>Typing Dragon</t>
-  </si>
-  <si>
     <t>The Evil Eye</t>
   </si>
   <si>
@@ -81,6 +75,9 @@
   </si>
   <si>
     <t>Well, goodbye.</t>
+  </si>
+  <si>
+    <t>Slime</t>
   </si>
 </sst>
 </file>
@@ -435,7 +432,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,7 +468,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -479,7 +476,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -487,13 +484,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -501,13 +498,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -515,13 +512,13 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -542,7 +539,13 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>17</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -550,7 +553,13 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>100</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -560,6 +569,12 @@
       <c r="B14" t="s">
         <v>10</v>
       </c>
+      <c r="C14">
+        <v>9999</v>
+      </c>
+      <c r="D14">
+        <v>7</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -568,7 +583,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Typocrypha/Assets/gameflow.xlsx
+++ b/Typocrypha/Assets/gameflow.xlsx
@@ -74,10 +74,10 @@
     <t>Ribbit Ribbit Ribbit Ribbit. Ribbit Ribbit. Riiiiibbbbiiiiiiiiit.</t>
   </si>
   <si>
-    <t>Well, goodbye.</t>
-  </si>
-  <si>
     <t>Slime</t>
+  </si>
+  <si>
+    <t>Well goodbye.</t>
   </si>
 </sst>
 </file>
@@ -432,7 +432,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,7 +515,7 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
@@ -539,12 +539,9 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12">
-        <v>10</v>
-      </c>
-      <c r="D12">
         <v>10</v>
       </c>
     </row>
@@ -558,9 +555,6 @@
       <c r="C13">
         <v>100</v>
       </c>
-      <c r="D13">
-        <v>5</v>
-      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -570,10 +564,7 @@
         <v>10</v>
       </c>
       <c r="C14">
-        <v>9999</v>
-      </c>
-      <c r="D14">
-        <v>7</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">

--- a/Typocrypha/Assets/gameflow.xlsx
+++ b/Typocrypha/Assets/gameflow.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17127"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rockpolotics\unity_projects\GDA\typocrypha\Typocrypha\Assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\valen\Documents\GitHub\typocrypha\Typocrypha\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8115"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="8112" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gameflow" sheetId="1" r:id="rId1"/>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -428,21 +428,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -450,12 +450,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -463,7 +463,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -471,7 +471,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -479,7 +479,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -493,7 +493,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -507,7 +507,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -521,12 +521,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -534,45 +534,36 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
       </c>
-      <c r="C12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
       </c>
-      <c r="C13">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>7</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
       </c>
-      <c r="C14">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>9</v>
       </c>

--- a/Typocrypha/Assets/gameflow.xlsx
+++ b/Typocrypha/Assets/gameflow.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17127"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\valen\Documents\GitHub\typocrypha\Typocrypha\Assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rockpolotics\unity_projects\GDA\typocrypha\Typocrypha\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="8112" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8115"/>
   </bookViews>
   <sheets>
     <sheet name="gameflow" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="21">
   <si>
     <t>INTRO</t>
   </si>
@@ -62,28 +62,37 @@
     <t>Frog</t>
   </si>
   <si>
-    <t>It'sa me! Tanuki man!</t>
-  </si>
-  <si>
     <t>tanuki_mario</t>
   </si>
   <si>
     <t>frog_mario</t>
   </si>
   <si>
-    <t>Ribbit Ribbit Ribbit Ribbit. Ribbit Ribbit. Riiiiibbbbiiiiiiiiit.</t>
-  </si>
-  <si>
     <t>Slime</t>
   </si>
   <si>
-    <t>Well goodbye.</t>
+    <t>Hey you! You're walking in the wrong part of town.</t>
+  </si>
+  <si>
+    <t>Ribbit Ribbit! (Yeah frog-face! Wrong part of town!)</t>
+  </si>
+  <si>
+    <t>Let's get em!</t>
+  </si>
+  <si>
+    <t>I'm out of here!</t>
+  </si>
+  <si>
+    <t>(He's not moving)</t>
+  </si>
+  <si>
+    <t>Oh my god. You killed Frog!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -428,21 +437,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -450,12 +459,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -463,7 +472,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -471,7 +480,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -479,7 +488,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -487,13 +496,13 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -501,13 +510,13 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -518,15 +527,15 @@
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -534,15 +543,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -550,7 +559,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -558,13 +567,84 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>9</v>
       </c>
     </row>
